--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2039530.19634811</v>
+        <v>-2042444.114587039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>25.81031612124779</v>
+        <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16.26110946101669</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="G6" t="n">
-        <v>16.44799022605969</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.84193026251983</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>26.17438373432615</v>
+        <v>13.46317442462584</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12.71120930970031</v>
+      </c>
+      <c r="W8" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>60.45947654110297</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>168.1158122680972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>147.0290144562276</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>78.80827132237366</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>283.1276230196535</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>93.64805039858945</v>
       </c>
       <c r="H14" t="n">
-        <v>288.2128112170824</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>94.95854217467162</v>
       </c>
       <c r="T14" t="n">
         <v>201.1845237827089</v>
@@ -1701,10 +1701,10 @@
         <v>134.6653691686558</v>
       </c>
       <c r="H15" t="n">
-        <v>86.37017281540085</v>
+        <v>86.37017281540084</v>
       </c>
       <c r="I15" t="n">
-        <v>7.314214398001582</v>
+        <v>7.314214398001496</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>121.9377467312948</v>
+        <v>121.9377467312947</v>
       </c>
       <c r="T15" t="n">
         <v>189.3699128746641</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7457100446459</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2646871537214</v>
+        <v>142.2646871537213</v>
       </c>
       <c r="I16" t="n">
-        <v>87.92910319913979</v>
+        <v>87.92910319913973</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.33791841245549</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.8876773589786</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.3521659965355</v>
@@ -1822,13 +1822,13 @@
         <v>286.196560121192</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>7.652830050229711</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>8.02335573457515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200476</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545695</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116148</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189078</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112636</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189036</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2254,10 +2254,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221588</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295166</v>
+        <v>60.32014642295165</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545722</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295166</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452998</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221565</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295166</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139452998</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221565</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="32">
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179179</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365196</v>
       </c>
       <c r="X32" t="n">
         <v>338.1208983262551</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,13 +3241,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295161</v>
+        <v>60.32014642295159</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545721</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442995</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139452993</v>
+        <v>54.52629139452992</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,16 +3512,16 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-2.813749233609997e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262523</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894952</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295177</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545723</v>
@@ -3797,13 +3797,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3898,7 +3898,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659984</v>
@@ -3907,16 +3907,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221576</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3961,7 +3961,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998808</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545723</v>
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4544,25 +4544,25 @@
         <v>104.6181590127069</v>
       </c>
       <c r="C5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="D5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="E5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="F5" t="n">
-        <v>47.37467136741799</v>
+        <v>97.67265826350346</v>
       </c>
       <c r="G5" t="n">
-        <v>21.30364498231921</v>
+        <v>83.82687982130346</v>
       </c>
       <c r="H5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="D6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="E6" t="n">
         <v>117.551221084159</v>
       </c>
       <c r="F6" t="n">
+        <v>117.551221084159</v>
+      </c>
+      <c r="G6" t="n">
         <v>67.25323418807346</v>
       </c>
-      <c r="G6" t="n">
-        <v>50.63910264659903</v>
-      </c>
       <c r="H6" t="n">
-        <v>50.63910264659903</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4653,7 +4653,7 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4671,25 +4671,25 @@
         <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="T6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="U6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="V6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="W6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5653832549667</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5653832549667</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5653832549667</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5653832549667</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="F8" t="n">
-        <v>152.6198825057633</v>
+        <v>139.7802771424296</v>
       </c>
       <c r="G8" t="n">
         <v>126.181111056949</v>
@@ -4826,28 +4826,28 @@
         <v>346.7673010107287</v>
       </c>
       <c r="R8" t="n">
+        <v>346.7673010107287</v>
+      </c>
+      <c r="S8" t="n">
+        <v>346.7673010107287</v>
+      </c>
+      <c r="T8" t="n">
         <v>253.1663421328477</v>
       </c>
-      <c r="S8" t="n">
-        <v>159.5653832549667</v>
-      </c>
-      <c r="T8" t="n">
-        <v>159.5653832549667</v>
-      </c>
       <c r="U8" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="V8" t="n">
-        <v>159.5653832549667</v>
+        <v>240.3267367695141</v>
       </c>
       <c r="W8" t="n">
-        <v>159.5653832549667</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="X8" t="n">
-        <v>159.5653832549667</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="Y8" t="n">
-        <v>159.5653832549667</v>
+        <v>146.7257778916331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="C9" t="n">
-        <v>295.1020038920394</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="D9" t="n">
-        <v>295.1020038920394</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="E9" t="n">
-        <v>201.5010450141584</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="F9" t="n">
-        <v>107.9000861362774</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="G9" t="n">
-        <v>107.9000861362774</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="H9" t="n">
-        <v>107.9000861362774</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I9" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128176</v>
@@ -4890,10 +4890,10 @@
         <v>102.6982772648967</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522524</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514005</v>
@@ -4911,22 +4911,22 @@
         <v>356.1721822163859</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V9" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="W9" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="X9" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="Y9" t="n">
-        <v>356.1721822163859</v>
+        <v>288.2160725767712</v>
       </c>
     </row>
     <row r="10">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,16 +5051,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5078,13 +5078,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>679.6952191369614</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>510.7590362090546</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>861.3436839672012</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1896.866164748443</v>
+        <v>1700.336103315622</v>
       </c>
       <c r="C14" t="n">
-        <v>1527.903647808031</v>
+        <v>1331.37358637521</v>
       </c>
       <c r="D14" t="n">
-        <v>1169.637949201281</v>
+        <v>973.1078877684597</v>
       </c>
       <c r="E14" t="n">
-        <v>783.8496966030366</v>
+        <v>587.3196351702154</v>
       </c>
       <c r="F14" t="n">
-        <v>372.863791813429</v>
+        <v>176.3337303806078</v>
       </c>
       <c r="G14" t="n">
-        <v>372.863791813429</v>
+        <v>81.73974007900233</v>
       </c>
       <c r="H14" t="n">
-        <v>81.73974007900222</v>
+        <v>81.73974007900233</v>
       </c>
       <c r="I14" t="n">
-        <v>81.73974007900222</v>
+        <v>81.73974007900233</v>
       </c>
       <c r="J14" t="n">
-        <v>323.0866869849251</v>
+        <v>323.0866869849269</v>
       </c>
       <c r="K14" t="n">
-        <v>735.5417159009767</v>
+        <v>735.5417159009794</v>
       </c>
       <c r="L14" t="n">
-        <v>1284.130412897777</v>
+        <v>1284.13041289778</v>
       </c>
       <c r="M14" t="n">
-        <v>1926.210477476453</v>
+        <v>1926.210477476458</v>
       </c>
       <c r="N14" t="n">
-        <v>2583.293877152886</v>
+        <v>2583.293877152891</v>
       </c>
       <c r="O14" t="n">
-        <v>3190.42383752836</v>
+        <v>3190.423837528366</v>
       </c>
       <c r="P14" t="n">
-        <v>3674.094211401806</v>
+        <v>3674.094211401812</v>
       </c>
       <c r="Q14" t="n">
-        <v>3989.137772637134</v>
+        <v>3989.13777263714</v>
       </c>
       <c r="R14" t="n">
-        <v>4086.987003950111</v>
+        <v>4086.987003950117</v>
       </c>
       <c r="S14" t="n">
-        <v>4086.987003950111</v>
+        <v>3991.069284581761</v>
       </c>
       <c r="T14" t="n">
-        <v>3883.770313260506</v>
+        <v>3787.852593892156</v>
       </c>
       <c r="U14" t="n">
-        <v>3630.29029559867</v>
+        <v>3534.37257623032</v>
       </c>
       <c r="V14" t="n">
-        <v>3299.227408255099</v>
+        <v>3203.309688886749</v>
       </c>
       <c r="W14" t="n">
-        <v>2946.458752984985</v>
+        <v>2850.541033616635</v>
       </c>
       <c r="X14" t="n">
-        <v>2572.992994723905</v>
+        <v>2477.075275355555</v>
       </c>
       <c r="Y14" t="n">
-        <v>2182.853662748093</v>
+        <v>2086.935943379744</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.3704342339542</v>
       </c>
       <c r="H15" t="n">
-        <v>89.12783543051897</v>
+        <v>89.127835430519</v>
       </c>
       <c r="I15" t="n">
-        <v>81.73974007900222</v>
+        <v>81.73974007900233</v>
       </c>
       <c r="J15" t="n">
-        <v>206.6664813070686</v>
+        <v>206.666481307069</v>
       </c>
       <c r="K15" t="n">
-        <v>498.3410048293433</v>
+        <v>498.3410048293441</v>
       </c>
       <c r="L15" t="n">
-        <v>936.8559377320656</v>
+        <v>936.8559377320669</v>
       </c>
       <c r="M15" t="n">
-        <v>1134.404680669103</v>
+        <v>936.8559377320669</v>
       </c>
       <c r="N15" t="n">
-        <v>1693.952626714574</v>
+        <v>1494.089973229957</v>
       </c>
       <c r="O15" t="n">
-        <v>2183.609885583045</v>
+        <v>1983.747232098428</v>
       </c>
       <c r="P15" t="n">
-        <v>2557.269938528209</v>
+        <v>2357.407285043592</v>
       </c>
       <c r="Q15" t="n">
         <v>2557.269938528209</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.6852162796595</v>
+        <v>780.2014900715604</v>
       </c>
       <c r="C16" t="n">
-        <v>778.6852162796595</v>
+        <v>611.2653071436536</v>
       </c>
       <c r="D16" t="n">
-        <v>628.5685768673237</v>
+        <v>461.1486677313178</v>
       </c>
       <c r="E16" t="n">
-        <v>628.5685768673237</v>
+        <v>461.1486677313178</v>
       </c>
       <c r="F16" t="n">
-        <v>481.6786293694133</v>
+        <v>314.2587202334074</v>
       </c>
       <c r="G16" t="n">
         <v>314.2587202334074</v>
@@ -5431,55 +5431,55 @@
         <v>170.5570160377293</v>
       </c>
       <c r="I16" t="n">
-        <v>81.73974007900222</v>
+        <v>81.73974007900233</v>
       </c>
       <c r="J16" t="n">
-        <v>146.4672868452016</v>
+        <v>146.4672868452018</v>
       </c>
       <c r="K16" t="n">
-        <v>382.6713664123359</v>
+        <v>382.6713664123363</v>
       </c>
       <c r="L16" t="n">
-        <v>740.4577006429126</v>
+        <v>740.4577006429133</v>
       </c>
       <c r="M16" t="n">
-        <v>1128.082347837815</v>
+        <v>1128.082347837816</v>
       </c>
       <c r="N16" t="n">
-        <v>1511.924763727963</v>
+        <v>1511.924763727964</v>
       </c>
       <c r="O16" t="n">
-        <v>1850.449065983327</v>
+        <v>1850.449065983329</v>
       </c>
       <c r="P16" t="n">
-        <v>2116.594406214272</v>
+        <v>2116.594406214273</v>
       </c>
       <c r="Q16" t="n">
-        <v>2217.424564240869</v>
+        <v>2217.424564240871</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.315555743439</v>
+        <v>2217.424564240871</v>
       </c>
       <c r="S16" t="n">
-        <v>1953.560326087905</v>
+        <v>2217.424564240871</v>
       </c>
       <c r="T16" t="n">
-        <v>1733.002582657061</v>
+        <v>1996.866820810027</v>
       </c>
       <c r="U16" t="n">
-        <v>1443.91514819121</v>
+        <v>1707.779386344177</v>
       </c>
       <c r="V16" t="n">
-        <v>1189.230659985323</v>
+        <v>1700.049254980308</v>
       </c>
       <c r="W16" t="n">
-        <v>1189.230659985323</v>
+        <v>1410.632084943348</v>
       </c>
       <c r="X16" t="n">
-        <v>1181.126260253429</v>
+        <v>1182.64253404533</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.3336811098992</v>
+        <v>961.8499549018002</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E17" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511613</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511613</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.6566406127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767223</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755807</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924542</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177178</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511613</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>216.5575109835856</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334498</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277767</v>
       </c>
       <c r="M18" t="n">
-        <v>1428.524759781582</v>
+        <v>1357.074366803432</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781582</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O18" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281988</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511613</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127668</v>
@@ -5738,22 +5738,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050962</v>
@@ -5765,37 +5765,37 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283562</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382057</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437411</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.3428185018</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851457</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.59856033345</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O21" t="n">
         <v>1934.929714729833</v>
@@ -5884,73 +5884,73 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.17427870428</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443626</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902799</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P22" t="n">
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
         <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
         <v>1784.429621497863</v>
@@ -5972,28 +5972,28 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162836</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511609</v>
       </c>
       <c r="J23" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746737</v>
@@ -6014,7 +6014,7 @@
         <v>4249.020448755809</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283563</v>
@@ -6023,16 +6023,16 @@
         <v>3795.85162740016</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511619</v>
+        <v>519.59856033345</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448926</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551812</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>1551.252537854179</v>
       </c>
       <c r="O24" t="n">
         <v>1934.929714729833</v>
@@ -6142,22 +6142,22 @@
         <v>140.0574709897929</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042748</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443575</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690275</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.55207904089</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.71920135497</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313932</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511882</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607686</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695147</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233284</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283562</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382057</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="27">
@@ -6288,31 +6288,31 @@
         <v>618.1705534421001</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9330984366446</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3985404635296</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G27" t="n">
-        <v>176.4447347764804</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.59856033345</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448926</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551812</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="N27" t="n">
         <v>1428.524759781583</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502089</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028685</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352539</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6440,58 +6440,58 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.980408975117</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951444</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400161</v>
@@ -6503,7 +6503,7 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
         <v>2476.13298385146</v>
@@ -6537,31 +6537,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511621</v>
+        <v>519.59856033345</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448926</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551812</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464468</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502089</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E31" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315383</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352539</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6734,7 +6734,7 @@
         <v>3795.851627400159</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382057</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
@@ -6780,10 +6780,10 @@
         <v>84.98040897511618</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511618</v>
+        <v>388.0214583249804</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448926</v>
+        <v>841.8200879193075</v>
       </c>
       <c r="M33" t="n">
         <v>850.6694118551812</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,22 +6856,22 @@
         <v>84.98040897511618</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443609</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902777</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354972</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
@@ -6886,10 +6886,10 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796662</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162836</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511615</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511615</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076832</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746737</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233284</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.6566406127</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767224</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755808</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924543</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283562</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511615</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835858</v>
       </c>
       <c r="K36" t="n">
-        <v>301.7509472448926</v>
+        <v>519.59856033345</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448926</v>
+        <v>973.3971899277772</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551812</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464468</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7087,31 +7087,31 @@
         <v>251.2943450749439</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511615</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902789</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040889</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354969</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313931</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028684</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597201</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112804</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497861</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216579</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943803</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796646</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162809</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511333</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511618</v>
       </c>
       <c r="J38" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K38" t="n">
         <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746737</v>
@@ -7214,10 +7214,10 @@
         <v>3175.879079437411</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.3428185018</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851457</v>
       </c>
     </row>
     <row r="39">
@@ -7266,13 +7266,13 @@
         <v>2100.171002464468</v>
       </c>
       <c r="O39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H40" t="n">
         <v>140.057470989793</v>
@@ -7366,16 +7366,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112804</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497861</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216579</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076834</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951461</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835858</v>
@@ -7503,13 +7503,13 @@
         <v>2100.171002464468</v>
       </c>
       <c r="O42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609044</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443607</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313935</v>
@@ -7600,7 +7600,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7658,16 +7658,16 @@
         <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
         <v>4249.02044875581</v>
@@ -7682,16 +7682,16 @@
         <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
         <v>501.6849958039801</v>
@@ -7804,19 +7804,19 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272506</v>
       </c>
       <c r="K22" t="n">
         <v>106.7437663446525</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132271957</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -9808,7 +9808,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658785</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -10045,10 +10045,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658834</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140371</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837774707</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094405</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10762,7 +10762,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837774656</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -22571,10 +22571,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22586,13 +22586,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>208.3370264727321</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>323.3987056767689</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>181.1251564493158</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>207.7147270142173</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.60621864382705</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.2972947324001</v>
+        <v>316.6492443338107</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>288.2128112170824</v>
       </c>
       <c r="I14" t="n">
-        <v>17.50355668901517</v>
+        <v>17.503556689015</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>94.95854217467173</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7457100446459</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>76.33791841245539</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.8876773589786</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>244.4848132735983</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>217.686299654462</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1236430.82605881</v>
+        <v>1236430.826058811</v>
       </c>
     </row>
     <row r="7">
@@ -26323,13 +26323,13 @@
         <v>85249.27474273012</v>
       </c>
       <c r="F2" t="n">
-        <v>93984.01314603955</v>
+        <v>93984.01314603961</v>
       </c>
       <c r="G2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="H2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330356</v>
@@ -26338,19 +26338,19 @@
         <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,40 +26372,40 @@
         <v>65327.89037938112</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399349</v>
+        <v>728470.100839935</v>
       </c>
       <c r="F3" t="n">
-        <v>177316.4781366264</v>
+        <v>177316.4781366277</v>
       </c>
       <c r="G3" t="n">
-        <v>62091.48955144688</v>
+        <v>62091.48955144449</v>
       </c>
       <c r="H3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.265516402781941e-11</v>
+        <v>1.676880856393836e-10</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12815.64136855694</v>
+        <v>12815.64136855706</v>
       </c>
       <c r="L3" t="n">
-        <v>36138.15843879716</v>
+        <v>36138.15843879721</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694317</v>
+        <v>184096.0922694316</v>
       </c>
       <c r="N3" t="n">
-        <v>46620.70221180489</v>
+        <v>46620.70221180516</v>
       </c>
       <c r="O3" t="n">
-        <v>9748.377631484063</v>
+        <v>9748.377631483643</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>15259.89878720224</v>
       </c>
       <c r="F4" t="n">
-        <v>15358.40758211094</v>
+        <v>15358.40758211095</v>
       </c>
       <c r="G4" t="n">
-        <v>46449.25880112077</v>
+        <v>46449.2588011209</v>
       </c>
       <c r="H4" t="n">
         <v>46449.2588011208</v>
       </c>
       <c r="I4" t="n">
+        <v>46449.25880112091</v>
+      </c>
+      <c r="J4" t="n">
         <v>46449.25880112092</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>46449.25880112094</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46449.25880112095</v>
+      </c>
+      <c r="M4" t="n">
         <v>46449.25880112096</v>
       </c>
-      <c r="K4" t="n">
-        <v>46449.25880112093</v>
-      </c>
-      <c r="L4" t="n">
-        <v>46449.25880112097</v>
-      </c>
-      <c r="M4" t="n">
-        <v>46449.25880112094</v>
-      </c>
       <c r="N4" t="n">
-        <v>46449.25880112097</v>
+        <v>46449.25880112096</v>
       </c>
       <c r="O4" t="n">
-        <v>46449.25880112097</v>
+        <v>46449.25880112083</v>
       </c>
       <c r="P4" t="n">
         <v>46449.25880112084</v>
@@ -26479,19 +26479,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>89265.46731011785</v>
+        <v>89265.46731011797</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021552</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215522</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215525</v>
@@ -26500,13 +26500,13 @@
         <v>95106.43410215524</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215524</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215525</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-595877.2614096077</v>
+        <v>-595959.966811829</v>
       </c>
       <c r="C6" t="n">
-        <v>-356255.7384825708</v>
+        <v>-356255.7384825709</v>
       </c>
       <c r="D6" t="n">
-        <v>-324422.0503639968</v>
+        <v>-324422.0503639967</v>
       </c>
       <c r="E6" t="n">
-        <v>-732787.0654458003</v>
+        <v>-733134.6843756065</v>
       </c>
       <c r="F6" t="n">
-        <v>-187956.3398828157</v>
+        <v>-188129.2640445569</v>
       </c>
       <c r="G6" t="n">
-        <v>-101016.9612216875</v>
+        <v>-101016.9612216852</v>
       </c>
       <c r="H6" t="n">
-        <v>-38925.47167024061</v>
+        <v>-38925.4716702404</v>
       </c>
       <c r="I6" t="n">
-        <v>-38925.47167024061</v>
+        <v>-38925.47167024074</v>
       </c>
       <c r="J6" t="n">
-        <v>-38925.47167024066</v>
+        <v>-38925.47167024059</v>
       </c>
       <c r="K6" t="n">
-        <v>-51741.11303879763</v>
+        <v>-51741.1130387977</v>
       </c>
       <c r="L6" t="n">
         <v>-75063.63010903797</v>
@@ -26555,13 +26555,13 @@
         <v>-223021.5639396723</v>
       </c>
       <c r="N6" t="n">
-        <v>-85546.1738820457</v>
+        <v>-85546.17388204596</v>
       </c>
       <c r="O6" t="n">
-        <v>-48673.84930172487</v>
+        <v>-48673.84930172421</v>
       </c>
       <c r="P6" t="n">
-        <v>-38925.47167024069</v>
+        <v>-38925.47167024055</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221404</v>
+      </c>
+      <c r="H2" t="n">
         <v>31.6102023522139</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
         <v>31.61020235221411</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221418</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221397</v>
       </c>
-      <c r="M2" t="n">
-        <v>31.61020235221416</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221399</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221397</v>
@@ -26747,13 +26747,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1245.103892205329</v>
+        <v>1245.10389220533</v>
       </c>
       <c r="G3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620122</v>
       </c>
       <c r="H3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620122</v>
       </c>
       <c r="I3" t="n">
         <v>1278.159870620122</v>
@@ -26796,25 +26796,25 @@
         <v>92.6649492891022</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>1021.746750987528</v>
+        <v>1021.746750987529</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188952</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188952</v>
@@ -26826,7 +26826,7 @@
         <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="H2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.669775429036235e-13</v>
+        <v>2.096101070492296e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
-        <v>2.309263891220326e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>60.73137549659748</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291326</v>
+        <v>632.1853818291328</v>
       </c>
       <c r="F3" t="n">
-        <v>155.3271916120304</v>
+        <v>155.3271916120316</v>
       </c>
       <c r="G3" t="n">
-        <v>33.05597841479425</v>
+        <v>33.05597841479198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,40 +27018,40 @@
         <v>42.86994226197757</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131907</v>
       </c>
       <c r="F4" t="n">
-        <v>190.3452955852349</v>
+        <v>190.3452955852363</v>
       </c>
       <c r="G4" t="n">
-        <v>40.50836120142515</v>
+        <v>40.50836120142253</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.79500702712437</v>
+        <v>49.79500702712483</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197712</v>
+        <v>42.86994226197734</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131903</v>
+        <v>738.7365061131907</v>
       </c>
       <c r="N4" t="n">
-        <v>190.3452955852352</v>
+        <v>190.3452955852363</v>
       </c>
       <c r="O4" t="n">
-        <v>40.50836120142515</v>
+        <v>40.50836120142299</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.669775429036235e-13</v>
+        <v>2.096101070492296e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,16 +27264,16 @@
         <v>42.86994226197757</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131907</v>
       </c>
       <c r="N4" t="n">
-        <v>190.3452955852349</v>
+        <v>190.3452955852363</v>
       </c>
       <c r="O4" t="n">
-        <v>40.50836120142515</v>
+        <v>40.50836120142253</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27403,10 +27403,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,13 +27418,13 @@
         <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
         <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
-        <v>133.1811664518765</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>179.1266962566148</v>
@@ -27433,7 +27433,7 @@
         <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407063421153</v>
+        <v>42.90367986938324</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>46.33239500170015</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>315.4778847438829</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,16 +27628,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>387.8970045365302</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.1357392253592</v>
+        <v>306.8746297643425</v>
       </c>
       <c r="I5" t="n">
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>107.8500734282763</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>95.27420536625925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>120.0419036629528</v>
+        <v>86.69488686188785</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9912405093721</v>
+        <v>54.19623348224745</v>
       </c>
       <c r="I6" t="n">
-        <v>70.13228042782632</v>
+        <v>57.29035016530649</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>106.0324861546552</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2887906902997</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.6353766150897</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.366133540830873</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S8" t="n">
-        <v>74.43607637216456</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U8" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>315.0410491604346</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,28 +27932,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>112.2490224472128</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>64.98013116629875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>52.40426310428168</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H9" t="n">
-        <v>102.729632124056</v>
+        <v>10.06468283495377</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>128.9209497559024</v>
       </c>
       <c r="U9" t="n">
         <v>225.8766285924705</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605511</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221404</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605506</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="23">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605763</v>
+        <v>12.38037836605506</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605586</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605506</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="W32" t="n">
         <v>31.61020235221702</v>
       </c>
-      <c r="W32" t="n">
-        <v>31.61020235221397</v>
-      </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605506</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221416</v>
+        <v>31.61020235221418</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605787</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221673</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221628</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605506</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -31373,10 +31373,10 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>163.8914845489273</v>
+        <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>181.1367191104579</v>
+        <v>153.0991627102423</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31610,13 +31610,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724355</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264121</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.005442782734987</v>
+        <v>5.005442782734991</v>
       </c>
       <c r="H14" t="n">
-        <v>51.26199089868469</v>
+        <v>51.26199089868474</v>
       </c>
       <c r="I14" t="n">
-        <v>192.9723328813907</v>
+        <v>192.9723328813909</v>
       </c>
       <c r="J14" t="n">
-        <v>424.8306993811539</v>
+        <v>424.8306993811543</v>
       </c>
       <c r="K14" t="n">
-        <v>636.711092374326</v>
+        <v>636.7110923743265</v>
       </c>
       <c r="L14" t="n">
-        <v>789.896411936452</v>
+        <v>789.8964119364528</v>
       </c>
       <c r="M14" t="n">
-        <v>878.9119550239153</v>
+        <v>878.9119550239161</v>
       </c>
       <c r="N14" t="n">
-        <v>893.1336693303612</v>
+        <v>893.133669330362</v>
       </c>
       <c r="O14" t="n">
-        <v>843.36079765954</v>
+        <v>843.3607976595408</v>
       </c>
       <c r="P14" t="n">
-        <v>719.78892896077</v>
+        <v>719.7889289607706</v>
       </c>
       <c r="Q14" t="n">
-        <v>540.5315093040731</v>
+        <v>540.5315093040736</v>
       </c>
       <c r="R14" t="n">
-        <v>314.4231452009769</v>
+        <v>314.4231452009772</v>
       </c>
       <c r="S14" t="n">
-        <v>114.0615274115736</v>
+        <v>114.0615274115737</v>
       </c>
       <c r="T14" t="n">
-        <v>21.91132578142241</v>
+        <v>21.91132578142243</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4004354226187988</v>
+        <v>0.4004354226187992</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.678147994554858</v>
+        <v>2.678147994554861</v>
       </c>
       <c r="H15" t="n">
-        <v>25.86527142109561</v>
+        <v>25.86527142109563</v>
       </c>
       <c r="I15" t="n">
-        <v>92.20816560199842</v>
+        <v>92.2081656019985</v>
       </c>
       <c r="J15" t="n">
-        <v>253.0262541697641</v>
+        <v>253.0262541697643</v>
       </c>
       <c r="K15" t="n">
-        <v>432.4621698049395</v>
+        <v>432.4621698049399</v>
       </c>
       <c r="L15" t="n">
-        <v>581.4987564492907</v>
+        <v>581.4987564492911</v>
       </c>
       <c r="M15" t="n">
-        <v>341.6782187069047</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>696.5416575838094</v>
+        <v>694.204374202414</v>
       </c>
       <c r="O15" t="n">
-        <v>637.199536230778</v>
+        <v>637.1995362307786</v>
       </c>
       <c r="P15" t="n">
-        <v>511.4088043286378</v>
+        <v>511.4088043286383</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>341.8632422523012</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>49.74542437254306</v>
+        <v>49.7454243725431</v>
       </c>
       <c r="T15" t="n">
-        <v>10.79481582015752</v>
+        <v>10.79481582015753</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1761939470101881</v>
+        <v>0.1761939470101883</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.245269313812888</v>
+        <v>2.24526931381289</v>
       </c>
       <c r="H16" t="n">
-        <v>19.96248535371823</v>
+        <v>19.96248535371825</v>
       </c>
       <c r="I16" t="n">
-        <v>67.5213717281185</v>
+        <v>67.52137172811855</v>
       </c>
       <c r="J16" t="n">
-        <v>158.7405404865711</v>
+        <v>158.7405404865713</v>
       </c>
       <c r="K16" t="n">
-        <v>260.8594711866245</v>
+        <v>260.8594711866248</v>
       </c>
       <c r="L16" t="n">
-        <v>333.810312346327</v>
+        <v>333.8103123463273</v>
       </c>
       <c r="M16" t="n">
-        <v>351.9561707097783</v>
+        <v>351.9561707097786</v>
       </c>
       <c r="N16" t="n">
-        <v>343.5874396310215</v>
+        <v>343.5874396310218</v>
       </c>
       <c r="O16" t="n">
-        <v>317.3586117378435</v>
+        <v>317.3586117378438</v>
       </c>
       <c r="P16" t="n">
-        <v>271.5551177360604</v>
+        <v>271.5551177360607</v>
       </c>
       <c r="Q16" t="n">
-        <v>188.0106877230046</v>
+        <v>188.0106877230048</v>
       </c>
       <c r="R16" t="n">
-        <v>100.955472964714</v>
+        <v>100.9554729647141</v>
       </c>
       <c r="S16" t="n">
-        <v>39.12892067799368</v>
+        <v>39.12892067799371</v>
       </c>
       <c r="T16" t="n">
-        <v>9.593423431745972</v>
+        <v>9.593423431745981</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1224692352988849</v>
+        <v>0.122469235298885</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.13833113817134</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879725</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043508</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383702</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171632</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869745</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.245987465429</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117584</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565671</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829621</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972007</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581558</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110795</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734505</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537071</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.74924953303196</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533499</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781092</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115854</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247267</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155579</v>
       </c>
       <c r="M18" t="n">
-        <v>601.8588519561642</v>
+        <v>529.6867378368212</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160624</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892347</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691324</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877212</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486993</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603671</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047343</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216613</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.4924648109259</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051416</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838145</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151664</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692045</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.300174575455</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696479</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246174</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381982</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636384</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227496</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925526</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118154</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171342</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879727</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383703</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171634</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869748</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654294</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117587</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565674</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829623</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734506</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537073</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781096</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>529.6867378368203</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160626</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892348</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691325</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486995</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051419</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151665</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692046</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381983</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227497</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925529</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118154</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,22 +32786,22 @@
         <v>94.65617909781096</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L24" t="n">
-        <v>357.514519446315</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160626</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578281</v>
+        <v>530.1489483592466</v>
       </c>
       <c r="P24" t="n">
         <v>524.9860796892348</v>
@@ -33023,19 +33023,19 @@
         <v>94.65617909781096</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463149</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879665</v>
+        <v>601.8588519561658</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160626</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578281</v>
@@ -33260,13 +33260,13 @@
         <v>94.65617909781096</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L30" t="n">
-        <v>357.514519446315</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879665</v>
@@ -33275,16 +33275,16 @@
         <v>715.0339827160626</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578281</v>
+        <v>602.6701715750714</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892348</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691325</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486995</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L33" t="n">
-        <v>357.514519446315</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879665</v>
+        <v>151.0727449683554</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160626</v>
@@ -33737,10 +33737,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>223.895414995881</v>
+        <v>443.9435090247268</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155582</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879665</v>
@@ -33749,16 +33749,16 @@
         <v>715.0339827160626</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578281</v>
+        <v>602.6701715750714</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892348</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691325</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486995</v>
@@ -33986,7 +33986,7 @@
         <v>715.0339827160626</v>
       </c>
       <c r="O39" t="n">
-        <v>577.6550422513142</v>
+        <v>602.6701715750714</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486995</v>
@@ -34132,7 +34132,7 @@
         <v>436.1094324383703</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171634</v>
+        <v>653.6149895171651</v>
       </c>
       <c r="L41" t="n">
         <v>810.8671910869748</v>
@@ -34223,7 +34223,7 @@
         <v>715.0339827160626</v>
       </c>
       <c r="O42" t="n">
-        <v>577.6550422513142</v>
+        <v>602.6701715750714</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486995</v>
@@ -34378,7 +34378,7 @@
         <v>902.2459874654294</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117587</v>
+        <v>916.8452708117609</v>
       </c>
       <c r="O44" t="n">
         <v>865.7509905565674</v>
@@ -34390,7 +34390,7 @@
         <v>554.881956697201</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581578</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -35021,10 +35021,10 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
+        <v>49.79500702712463</v>
+      </c>
+      <c r="N6" t="n">
         <v>21.75745062690899</v>
-      </c>
-      <c r="N6" t="n">
-        <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35258,13 +35258,13 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M9" t="n">
-        <v>32.44591292034803</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N9" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="O9" t="n">
-        <v>91.5825882819677</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920032</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>243.7847948544676</v>
+        <v>243.784794854468</v>
       </c>
       <c r="K14" t="n">
-        <v>416.6212413293454</v>
+        <v>416.621241329346</v>
       </c>
       <c r="L14" t="n">
-        <v>554.1299969664647</v>
+        <v>554.1299969664656</v>
       </c>
       <c r="M14" t="n">
-        <v>648.5657217966426</v>
+        <v>648.5657217966434</v>
       </c>
       <c r="N14" t="n">
-        <v>663.7206057337703</v>
+        <v>663.720605733771</v>
       </c>
       <c r="O14" t="n">
-        <v>613.2625862378533</v>
+        <v>613.2625862378541</v>
       </c>
       <c r="P14" t="n">
-        <v>488.5559332055005</v>
+        <v>488.555933205501</v>
       </c>
       <c r="Q14" t="n">
-        <v>318.2258194296236</v>
+        <v>318.225819429624</v>
       </c>
       <c r="R14" t="n">
-        <v>98.83760738684475</v>
+        <v>98.83760738684504</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.1886275030974</v>
+        <v>126.1886275030976</v>
       </c>
       <c r="K15" t="n">
-        <v>294.6207308305806</v>
+        <v>294.620730830581</v>
       </c>
       <c r="L15" t="n">
-        <v>442.9443766694165</v>
+        <v>442.944376669417</v>
       </c>
       <c r="M15" t="n">
-        <v>199.5441847848863</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>565.1999455004761</v>
+        <v>562.8626621190807</v>
       </c>
       <c r="O15" t="n">
-        <v>494.6032917863336</v>
+        <v>494.6032917863341</v>
       </c>
       <c r="P15" t="n">
-        <v>377.4343969143076</v>
+        <v>377.434396914308</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>201.8814681662797</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.38136036989837</v>
+        <v>65.38136036989852</v>
       </c>
       <c r="K16" t="n">
-        <v>238.5899793607417</v>
+        <v>238.5899793607419</v>
       </c>
       <c r="L16" t="n">
-        <v>361.4003376066431</v>
+        <v>361.4003376066435</v>
       </c>
       <c r="M16" t="n">
-        <v>391.5400476716189</v>
+        <v>391.5400476716192</v>
       </c>
       <c r="N16" t="n">
-        <v>387.7196120102501</v>
+        <v>387.7196120102504</v>
       </c>
       <c r="O16" t="n">
-        <v>341.9437396518832</v>
+        <v>341.9437396518835</v>
       </c>
       <c r="P16" t="n">
-        <v>268.8336770009539</v>
+        <v>268.8336770009541</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.8486444713102</v>
+        <v>101.8486444713104</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116839</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721826</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169872</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381563</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151674</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348803</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276925</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227512</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440236</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449187</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503677</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356838</v>
       </c>
       <c r="M18" t="n">
-        <v>459.724818034146</v>
+        <v>387.5527039148029</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327291</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749044</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831108</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375729</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817346</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010905</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721828</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381567</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151679</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348807</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276927</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9601396664396</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>387.552703914802</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327293</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749045</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>210.957517183111</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375735</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193574</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817347</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.979423190871</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553057</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9601396664408</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659482</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327293</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133837</v>
+        <v>387.5527039148022</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749045</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193521</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36528,7 +36528,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908673</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9601396664408</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659482</v>
+        <v>459.7248180341476</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327293</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133837</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895097</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908721</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.653334055302</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>687.4322072151679</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348825</v>
+        <v>635.6527791348807</v>
       </c>
       <c r="P29" t="n">
         <v>507.6654448276927</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664408</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659482</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327293</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133837</v>
+        <v>460.0739271306269</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749045</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.957517183111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375735</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664408</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659482</v>
+        <v>8.938711046337083</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327293</v>
@@ -37385,10 +37385,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>86.05397602152205</v>
+        <v>306.1020700503678</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>458.382454135684</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659482</v>
@@ -37397,16 +37397,16 @@
         <v>583.6922706327293</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133837</v>
+        <v>460.0739271306269</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749045</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.957517183111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375735</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>101.205929019356</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895048</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
@@ -37482,7 +37482,7 @@
         <v>307.653334055306</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641533</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>583.6922706327293</v>
       </c>
       <c r="O39" t="n">
-        <v>435.0587978068697</v>
+        <v>460.0739271306269</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375735</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010906</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>255.063527911684</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721828</v>
+        <v>433.5251384721846</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169876</v>
@@ -37871,7 +37871,7 @@
         <v>583.6922706327293</v>
       </c>
       <c r="O42" t="n">
-        <v>435.0587978068697</v>
+        <v>460.0739271306269</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375735</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>671.8997542381567</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151679</v>
+        <v>687.4322072151699</v>
       </c>
       <c r="O44" t="n">
         <v>635.6527791348807</v>
@@ -38038,7 +38038,7 @@
         <v>332.5762668227514</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895097</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010906</v>
